--- a/Education/Math_wrongs.xlsx
+++ b/Education/Math_wrongs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,55 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>6.1 X 9 =</t>
-  </si>
-  <si>
-    <t>1.3 X 0.6 =</t>
-  </si>
-  <si>
-    <t>1.02 X 0.7 =</t>
-  </si>
-  <si>
-    <t>0.7 X 2.5 =</t>
-  </si>
-  <si>
-    <t>125 X 0.8 =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 X 200 = </t>
-  </si>
-  <si>
-    <t>0.026 X 0.3 =</t>
-  </si>
-  <si>
-    <t>3.06 X 0.2 =</t>
-  </si>
-  <si>
-    <t>2.02 X 0.7 =</t>
-  </si>
-  <si>
-    <t>0.29 X 0.03 =</t>
-  </si>
-  <si>
-    <t>3.04 X 0.07 =</t>
-  </si>
-  <si>
-    <t>0.2 X 34 =</t>
-  </si>
-  <si>
-    <t>90 X 1.05 =</t>
-  </si>
-  <si>
-    <t>2.08 X 0.6 =</t>
-  </si>
-  <si>
-    <t>5.09 X 8 =</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+  <si>
+    <t>保留一位小数</t>
+  </si>
+  <si>
+    <t>5.93 + 0.19 + 2.81 =</t>
+  </si>
+  <si>
+    <t>0.17 + 0.06 =</t>
+  </si>
+  <si>
+    <t>450 + 780 =</t>
+  </si>
+  <si>
+    <t>2.5 + 3.2 =</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.2 X 0.8 </t>
+      <t xml:space="preserve">57 </t>
     </r>
     <r>
       <rPr>
@@ -81,47 +51,238 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>≈</t>
+      <t>÷ 3 =</t>
     </r>
   </si>
   <si>
-    <t>1.57 X 2 ≈</t>
-  </si>
-  <si>
-    <t>0.8 X 100.2 ≈</t>
-  </si>
-  <si>
-    <t>10.3 X 0.5 ≈</t>
-  </si>
-  <si>
-    <t>保留一位小数</t>
-  </si>
-  <si>
-    <t>5.93 + 0.19 + 2.81 =</t>
-  </si>
-  <si>
-    <t>13.1 X 0.7 - 3.1 X 0.7 =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8 X (4.3 X 1.25) = </t>
-  </si>
-  <si>
-    <t>0.6 X 15.7 - 0.6 X 14.7 =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 X 0.4 = </t>
-  </si>
-  <si>
-    <t>104 X 2.5 =</t>
-  </si>
-  <si>
-    <t>1.25 X 88 =</t>
-  </si>
-  <si>
-    <t>4.3 X 5 =</t>
-  </si>
-  <si>
-    <t>E9</t>
+    <t>15 ÷ 6 =</t>
+  </si>
+  <si>
+    <t>7.8 ÷ 3 =</t>
+  </si>
+  <si>
+    <t>7.5 ÷ 15 =</t>
+  </si>
+  <si>
+    <t>21 ÷ 70 =</t>
+  </si>
+  <si>
+    <t>85 ÷ 50 =</t>
+  </si>
+  <si>
+    <t>75 ÷ 50 =</t>
+  </si>
+  <si>
+    <t>10.5 ÷ 7 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6 ÷ 8 = </t>
+  </si>
+  <si>
+    <t>1.4 ÷ 7 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9 ÷ 0.2 = </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>× 6 =</t>
+    </r>
+  </si>
+  <si>
+    <t>6.1 × 9 =</t>
+  </si>
+  <si>
+    <t>1.3 × 0.6 =</t>
+  </si>
+  <si>
+    <t>1.02 × 0.7 =</t>
+  </si>
+  <si>
+    <t>0.7 × 2.5 =</t>
+  </si>
+  <si>
+    <t>125 × 0.8 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5 × 200 = </t>
+  </si>
+  <si>
+    <t>0.026 × 0.3 =</t>
+  </si>
+  <si>
+    <t>3.06 × 0.2 =</t>
+  </si>
+  <si>
+    <t>2.02 × 0.7 =</t>
+  </si>
+  <si>
+    <t>0.29 × 0.03 =</t>
+  </si>
+  <si>
+    <t>3.04 × 0.07 =</t>
+  </si>
+  <si>
+    <t>0.2 × 34 =</t>
+  </si>
+  <si>
+    <t>90 × 1.05 =</t>
+  </si>
+  <si>
+    <t>2.08 × 0.6 =</t>
+  </si>
+  <si>
+    <t>5.09 × 8 =</t>
+  </si>
+  <si>
+    <t>1.2 × 0.8 ≈</t>
+  </si>
+  <si>
+    <t>1.57 × 2 ≈</t>
+  </si>
+  <si>
+    <t>0.8 × 100.2 ≈</t>
+  </si>
+  <si>
+    <t>10.3 × 0.5 ≈</t>
+  </si>
+  <si>
+    <t>13.1 × 0.7 - 3.1 × 0.7 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8 × (4.3 × 1.25) = </t>
+  </si>
+  <si>
+    <t>0.6 × 15.7 - 0.6 × 14.7 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 × 0.4 = </t>
+  </si>
+  <si>
+    <t>104 × 2.5 =</t>
+  </si>
+  <si>
+    <t>1.25 × 88 =</t>
+  </si>
+  <si>
+    <t>4.3 × 5 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 × 0.02 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8 × 0.02 = </t>
+  </si>
+  <si>
+    <t>0.4 × 0.03 =</t>
+  </si>
+  <si>
+    <t>0.17 × 4 =</t>
+  </si>
+  <si>
+    <t>0.07 × 0.5 =</t>
+  </si>
+  <si>
+    <t>13.8 × 8 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32 × 8 = </t>
+  </si>
+  <si>
+    <t>7.5 × 0.18 + 2.5 × 0.18 =</t>
+  </si>
+  <si>
+    <t>7.5 × 0.1 =</t>
+  </si>
+  <si>
+    <t>1.4 × 0.5 =</t>
+  </si>
+  <si>
+    <t>3.5 × 0.2 =</t>
+  </si>
+  <si>
+    <t>0.35 × 0.6 =</t>
+  </si>
+  <si>
+    <t>0.45 × 0.2 =</t>
+  </si>
+  <si>
+    <t>2.4 × 4 =</t>
+  </si>
+  <si>
+    <t>4.8 ÷ 0.48 =</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>× 0.5 =</t>
+    </r>
+  </si>
+  <si>
+    <t>4.4 ÷ 0.45 =</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>× 0.8 =</t>
+    </r>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>21.3 ÷ 0.3 =</t>
+  </si>
+  <si>
+    <t>3.8 ÷ 0.2 =</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>× 0.2 =</t>
+    </r>
+  </si>
+  <si>
+    <t>5 ÷ 0.2 =</t>
+  </si>
+  <si>
+    <t>1.5 ÷ 0.3 =</t>
+  </si>
+  <si>
+    <t>3 ÷ 25 =</t>
   </si>
 </sst>
 </file>
@@ -491,7 +652,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,170 +666,252 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>

--- a/Education/Math_wrongs.xlsx
+++ b/Education/Math_wrongs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
   <si>
     <t>保留一位小数</t>
   </si>
@@ -253,9 +253,6 @@
     </r>
   </si>
   <si>
-    <t>P19</t>
-  </si>
-  <si>
     <t>21.3 ÷ 0.3 =</t>
   </si>
   <si>
@@ -283,6 +280,105 @@
   </si>
   <si>
     <t>3 ÷ 25 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 × 0.3 = </t>
+  </si>
+  <si>
+    <t>8.5 ÷ 1.7 =</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>0.2 × 0.5 =</t>
+  </si>
+  <si>
+    <t>1.6 × 0.2 =</t>
+  </si>
+  <si>
+    <t>÷</t>
+  </si>
+  <si>
+    <t>9.3 ÷ 0.3 =</t>
+  </si>
+  <si>
+    <t>60 × 0.5 =</t>
+  </si>
+  <si>
+    <t>0.45 ÷ 0.5 =</t>
+  </si>
+  <si>
+    <t>1.2 × 0.8 =</t>
+  </si>
+  <si>
+    <t>2.5 ÷ 10 =</t>
+  </si>
+  <si>
+    <t>0.4 × 1.25 =</t>
+  </si>
+  <si>
+    <t>0.8 × 0.5 =</t>
+  </si>
+  <si>
+    <t>1.89 ÷ 0.9 =</t>
+  </si>
+  <si>
+    <t>5.1 ÷ 0.17 =</t>
+  </si>
+  <si>
+    <t>18.6 ÷ 6 =</t>
+  </si>
+  <si>
+    <t>0.12 × 1.2 =</t>
+  </si>
+  <si>
+    <t>1.8 ÷ 0.3 =</t>
+  </si>
+  <si>
+    <t>1.86 × 4 =</t>
+  </si>
+  <si>
+    <t>0.75 ÷ 2.5 =</t>
+  </si>
+  <si>
+    <t>0.45 × 1.2 =</t>
+  </si>
+  <si>
+    <t>1.2 × 0.9 =</t>
+  </si>
+  <si>
+    <t>32.5 ÷ 0.5 =</t>
+  </si>
+  <si>
+    <t>2.58 ÷ 0.2 =</t>
+  </si>
+  <si>
+    <t>4.2 ÷ 0.1 =</t>
+  </si>
+  <si>
+    <t>2.5 × 0.5 =</t>
+  </si>
+  <si>
+    <t>3.7 × 0.7 =</t>
+  </si>
+  <si>
+    <t>0.35 × 0.7 =</t>
+  </si>
+  <si>
+    <t>8 × 5.4 =</t>
+  </si>
+  <si>
+    <t>1.8 × 0.4 =</t>
+  </si>
+  <si>
+    <t>3.1 × 0.3 =</t>
+  </si>
+  <si>
+    <t>0.92 ÷ 0.4 =</t>
+  </si>
+  <si>
+    <t>P34</t>
   </si>
 </sst>
 </file>
@@ -649,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,7 +760,7 @@
     <col min="5" max="5" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -681,7 +777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -698,7 +794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -715,7 +811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -732,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -743,7 +839,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -754,7 +850,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -771,7 +867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -788,7 +884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -803,7 +899,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -820,7 +916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -837,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -871,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -888,68 +984,141 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Education/Math_wrongs.xlsx
+++ b/Education/Math_wrongs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>保留一位小数</t>
   </si>
@@ -378,7 +378,92 @@
     <t>0.92 ÷ 0.4 =</t>
   </si>
   <si>
-    <t>P34</t>
+    <t>0.125 × 5 =</t>
+  </si>
+  <si>
+    <t>1.5 ÷ 40 =</t>
+  </si>
+  <si>
+    <t>4.8 ÷ 60 =</t>
+  </si>
+  <si>
+    <t>8 ÷ 0.5 =</t>
+  </si>
+  <si>
+    <t>0.25 × 60 =</t>
+  </si>
+  <si>
+    <t>0.8 ÷ 0.01 =</t>
+  </si>
+  <si>
+    <t>3.2 ÷ 0.2 =</t>
+  </si>
+  <si>
+    <t>7.2 ÷ 0.4 =</t>
+  </si>
+  <si>
+    <t>3.7 ÷ 0.5 =</t>
+  </si>
+  <si>
+    <t>2.6 × 4 =</t>
+  </si>
+  <si>
+    <t>1.3 × 0.5 =</t>
+  </si>
+  <si>
+    <t>1.2 × 0.4 =</t>
+  </si>
+  <si>
+    <t>0.52b + 0.8b =</t>
+  </si>
+  <si>
+    <t>7.6 ÷ 0.2 =</t>
+  </si>
+  <si>
+    <t>0.75 ÷ 0.25 =</t>
+  </si>
+  <si>
+    <r>
+      <t>8.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ -7χ = 32</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> χ =</t>
+  </si>
+  <si>
+    <t>9χ -4χ = 7.8</t>
+  </si>
+  <si>
+    <t>3.6 × 0.5 =</t>
+  </si>
+  <si>
+    <r>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ  = 16.4</t>
+    </r>
+  </si>
+  <si>
+    <t>3.4 ÷ 68 =</t>
+  </si>
+  <si>
+    <t>P49</t>
   </si>
 </sst>
 </file>
@@ -420,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -430,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1119,6 +1207,95 @@
       <c r="C22" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Education/Math_wrongs.xlsx
+++ b/Education/Math_wrongs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeng\Documents\GitHub\documents\Education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDENG\Documents\github\documents\Education\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>保留一位小数</t>
   </si>
@@ -288,16 +288,10 @@
     <t>8.5 ÷ 1.7 =</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>0.2 × 0.5 =</t>
   </si>
   <si>
     <t>1.6 × 0.2 =</t>
-  </si>
-  <si>
-    <t>÷</t>
   </si>
   <si>
     <t>9.3 ÷ 0.3 =</t>
@@ -470,11 +464,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -483,6 +477,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,11 +514,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,20 +836,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -865,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="23.1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -882,7 +883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -899,7 +900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="23.1" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -916,29 +917,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="23.1" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="23.1" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="23.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -955,7 +956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="23.1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -972,7 +973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="23.1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -987,7 +988,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="23.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="23.1" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="23.1" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="23.1" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="23.1" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="23.1" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1088,11 +1089,9 @@
       <c r="E15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.1" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -1103,197 +1102,195 @@
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" ht="23.1" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1304,7 +1301,8 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>